--- a/Project_TimeLine_2021_14_Jan.xlsx
+++ b/Project_TimeLine_2021_14_Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murphy Tan\Desktop\lms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A66AD6B-D5D3-4BCA-B92F-E1F9FF27BA47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527BDFBB-98A8-4625-A498-5639039A664D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{5A8E5395-CCD6-4F57-83A8-81B53FE4AFF6}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,6 +597,9 @@
       <c r="F5" s="3">
         <v>44209</v>
       </c>
+      <c r="G5" s="3">
+        <v>44207</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
